--- a/data/trans_camb/P16A99-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A99-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
